--- a/Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642961EF-97C7-4A0B-B08E-57B6F46BBECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTC" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43497</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F7" s="2">
         <v>43315</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43224</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43133</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43039</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42860</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>539300</v>
+      </c>
+      <c r="F8" s="3">
         <v>655800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>875300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>548200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>488600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>627900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>872800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>515800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>360200</v>
+      </c>
+      <c r="F9" s="3">
         <v>422200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>551200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>344000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>304400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>401200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>556500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>322400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F10" s="3">
         <v>233600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>324100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>204200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>184200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>226700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>316300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>193400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +875,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +906,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +941,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +976,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +1011,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1027,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>532900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>496300</v>
+      </c>
+      <c r="F17" s="3">
         <v>562900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>705000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>481300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>441200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>540200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>713500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>455300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F18" s="3">
         <v>92900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>170300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>66900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>47400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>87700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>159300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>60500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1112,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F21" s="3">
         <v>109700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>188800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>86400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>69000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>106300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>181000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>81000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,86 +1193,104 @@
         <v>4700</v>
       </c>
       <c r="E22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
-        <v>4800</v>
-      </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
         <v>4800</v>
       </c>
       <c r="I22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F23" s="3">
         <v>93300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>169200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>66400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>46900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>88400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>158300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>59600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22300</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="3">
-        <v>53800</v>
+        <v>4400</v>
       </c>
       <c r="F24" s="3">
-        <v>28200</v>
+        <v>14800</v>
       </c>
       <c r="G24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I24" s="3">
         <v>13100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>37800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1318,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71000</v>
+        <v>59500</v>
       </c>
       <c r="E26" s="3">
-        <v>115400</v>
+        <v>39100</v>
       </c>
       <c r="F26" s="3">
-        <v>38200</v>
+        <v>78500</v>
       </c>
       <c r="G26" s="3">
+        <v>131300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I26" s="3">
         <v>33800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>68400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>120500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71000</v>
+        <v>59500</v>
       </c>
       <c r="E27" s="3">
-        <v>115400</v>
+        <v>39100</v>
       </c>
       <c r="F27" s="3">
-        <v>38200</v>
+        <v>78500</v>
       </c>
       <c r="G27" s="3">
+        <v>131300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I27" s="3">
         <v>33800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>68400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>120500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,25 +1423,31 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>15900</v>
+        <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-33100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1301,8 +1458,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1493,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1528,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F33" s="3">
         <v>79000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>131300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>33800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>68400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>120500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1633,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F35" s="3">
         <v>79000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>131300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>33800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>68400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>120500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43497</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F38" s="2">
         <v>43315</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43224</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43133</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43039</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42860</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1727,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1742,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>289100</v>
+      </c>
+      <c r="F41" s="3">
         <v>250900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>206100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>219700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>310300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>335000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>265200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>158900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,124 +1808,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>193200</v>
+      </c>
+      <c r="F43" s="3">
         <v>219500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>329600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>198700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>183100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>221600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>328500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>183900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>416700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>358300</v>
+      </c>
+      <c r="F44" s="3">
         <v>364500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>394800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>439300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>329000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>349000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>341600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>402100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>47800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>43000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>37600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>42600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>41300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>36500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>894600</v>
+      </c>
+      <c r="F46" s="3">
         <v>873000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>978200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>859900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>948100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>976600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>781300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,66 +1983,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>279300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>271500</v>
+      </c>
+      <c r="F48" s="3">
         <v>249500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>245300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>234400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>235200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>226900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>224300</v>
       </c>
       <c r="J48" s="3">
         <v>226900</v>
       </c>
       <c r="K48" s="3">
+        <v>224300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>226900</v>
+      </c>
+      <c r="M48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>330900</v>
+      </c>
+      <c r="F49" s="3">
         <v>333100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>335400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>308300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>308800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>308900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>310200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>312000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2088,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2123,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F52" s="3">
         <v>79200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>76700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>73200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>89900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>85500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>87700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>82700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2193,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1622800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1534800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1635700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1516800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1493800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1569500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1598800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1402900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2247,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,37 +2262,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>256600</v>
+      </c>
+      <c r="F57" s="3">
         <v>229000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>303900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>266600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>211800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>211500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>273600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>232400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,144 +2308,174 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>26300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>23100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>23000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>283500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>276100</v>
+      </c>
+      <c r="F59" s="3">
         <v>282600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>335500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>292900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>283800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>309400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>324900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>263700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>532600</v>
+      </c>
+      <c r="F60" s="3">
         <v>511700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>652400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>572500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>521800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>543900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>622400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>519100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>312600</v>
+      </c>
+      <c r="E61" s="3">
         <v>312500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>312500</v>
+      </c>
+      <c r="G61" s="3">
         <v>299300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>302500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>305600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>308800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>312000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>315300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56900</v>
+      </c>
+      <c r="F62" s="3">
         <v>60400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>60700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>61100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>49300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>56900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>56600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>55400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2503,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2538,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2573,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>928400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>902100</v>
+      </c>
+      <c r="F66" s="3">
         <v>884500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1012400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>936000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>876700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>909600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>991000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>889900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2627,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2658,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2693,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2728,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2763,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>613200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>587300</v>
+      </c>
+      <c r="F72" s="3">
         <v>568400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>538500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>490400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>534300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>578600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>535600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>443600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2833,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2868,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2903,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>694400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>668900</v>
+      </c>
+      <c r="F76" s="3">
         <v>650200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>623300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>580800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>617100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>659900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>607800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>513000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2973,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43497</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F80" s="2">
         <v>43315</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43224</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43133</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43039</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42860</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F81" s="3">
         <v>79000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>131300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>33800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>68400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>120500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +3067,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>15200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>18000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3133,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3168,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3203,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3238,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3273,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F89" s="3">
         <v>120900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>130300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>84100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>106200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>155000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3327,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-16600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-24600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
-        <v>14900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-28600</v>
-      </c>
       <c r="I91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3393,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3428,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-56100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-27700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3482,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-21100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-21300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-21400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-18800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-18900</v>
       </c>
       <c r="J96" s="3">
         <v>-19000</v>
       </c>
       <c r="K96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3548,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3583,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3618,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-51900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-88700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-88100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-82900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-32600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-96300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F102" s="3">
         <v>44800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-90500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>69800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>106300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-114700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
     </row>

--- a/Financials/Quarterly/TTC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TTC_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642961EF-97C7-4A0B-B08E-57B6F46BBECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TTC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TTC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,181 +654,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43679</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43588</v>
+      </c>
+      <c r="G7" s="2">
         <v>43497</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43315</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43224</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43133</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43039</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42860</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>734400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>838700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>962000</v>
+      </c>
+      <c r="G8" s="3">
         <v>603000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>539300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>655800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>875300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>548200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>488600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>627900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>872800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>515800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>468400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>489300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>572700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>640700</v>
+      </c>
+      <c r="G9" s="3">
         <v>387300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>360200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>422200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>551200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>344000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>304400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>401200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>556500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>322400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>321300</v>
+      </c>
+      <c r="G10" s="3">
         <v>215700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>179100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>233600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>324100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>204200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>184200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>226700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>316300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>193400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>172200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +881,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +919,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,8 +1007,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1051,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1029,78 +1072,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>691100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>764800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>824300</v>
+      </c>
+      <c r="G17" s="3">
         <v>532900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>496300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>562900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>705000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>481300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>441200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>540200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>713500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>455300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>424800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>137700</v>
+      </c>
+      <c r="G18" s="3">
         <v>70100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>43000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>92900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>170300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>66900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>47400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>87700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>159300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>60500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1114,183 +1178,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>171700</v>
+      </c>
+      <c r="G21" s="3">
         <v>90300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>67800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>109700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>188800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>86400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>69000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>106300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>181000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>81000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>64800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>8400</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
         <v>4700</v>
       </c>
       <c r="H22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>137200</v>
+      </c>
+      <c r="G23" s="3">
         <v>70000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>43600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>93300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>169200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>66400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>46900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>88400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>158300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>59600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>14800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>37900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>10700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>37800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>14600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1324,78 +1436,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>59700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G26" s="3">
         <v>59500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>39100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>78500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>131300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>55700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>33800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>68400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>120500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>59700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G27" s="3">
         <v>59500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>39100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>78500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>131300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>55700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>33800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>68400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>120500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1429,34 +1568,43 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
+        <v>900</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-33100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1464,8 +1612,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1499,8 +1656,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,78 +1700,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>60600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G33" s="3">
         <v>59500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>39000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>79000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>131300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>33800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>68400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>120500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1639,83 +1832,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G35" s="3">
         <v>59500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>39000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>79000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>131300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>33800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>68400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>120500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43679</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43588</v>
+      </c>
+      <c r="G38" s="2">
         <v>43497</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43315</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43224</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43133</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43039</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42860</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,8 +1949,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1744,43 +1967,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>180100</v>
+      </c>
+      <c r="G41" s="3">
         <v>250000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>289100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>250900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>206100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>219700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>310300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>335000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>265200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>158900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>273600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1814,148 +2049,193 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>312200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>428600</v>
+      </c>
+      <c r="G43" s="3">
         <v>225500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>193200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>219500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>329600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>198700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>183100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>221600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>328500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>183900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>326500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>620600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>611300</v>
+      </c>
+      <c r="G44" s="3">
         <v>416700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>358300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>364500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>394800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>439300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>329000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>349000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>341600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>402100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>50300</v>
+      </c>
+      <c r="G45" s="3">
         <v>41800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>54100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>47800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>43000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>37600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>42600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>41300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>36500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1122900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1130400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1270300</v>
+      </c>
+      <c r="G46" s="3">
         <v>933900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>894600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>873000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>978200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>900800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>859900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>948100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>976600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>781300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1989,78 +2269,105 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>437300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>426400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>425400</v>
+      </c>
+      <c r="G48" s="3">
         <v>279300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>271500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>249500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>245300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>234400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>235200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>226900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>224300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>226900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>1060100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>714600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>700400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>705500</v>
+      </c>
+      <c r="G49" s="3">
         <v>331100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>330900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>333100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>335400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>308300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>308800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>308900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>310200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>312000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>302900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,8 +2401,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,43 +2445,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>64800</v>
+      </c>
+      <c r="G52" s="3">
         <v>78500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>73900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>79200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>76700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>73200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>89900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>85500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>87700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>82700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,43 +2533,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2330500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2309700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2466000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1622800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1571000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>1534800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1635700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1516800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1493800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1569500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1598800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1402900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1384600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2249,8 +2601,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2264,218 +2619,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>304700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>391700</v>
+      </c>
+      <c r="G57" s="3">
         <v>281500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>256600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>229000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>303900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>266600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>211800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>211500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>273600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>232400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>174700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>79900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>99900</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>26300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>23100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>23900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>23000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>22500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>357800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>351900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>360100</v>
+      </c>
+      <c r="G59" s="3">
         <v>283500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>276100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>282600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>335500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>292900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>283800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>309400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>324900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>263700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>479800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>756400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>841800</v>
+      </c>
+      <c r="G60" s="3">
         <v>565000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>532600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>511700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>652400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>572500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>521800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>543900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>622400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>519100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>463800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>620900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>620800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>721100</v>
+      </c>
+      <c r="G61" s="3">
         <v>312600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>312500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>312500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>299300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>302500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>305600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>308800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>312000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>315300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>328500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>97900</v>
+      </c>
+      <c r="G62" s="3">
         <v>50900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>56900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>60400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>60700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>61100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>49300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>56900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>56600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>55400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2509,8 +2921,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +2965,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2579,43 +3009,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1471000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1465900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1660700</v>
+      </c>
+      <c r="G66" s="3">
         <v>928400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>902100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>884500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1012400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>936000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>876700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>909600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>991000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>889900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>834500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2629,8 +3077,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2664,8 +3115,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2699,8 +3159,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2734,8 +3203,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2769,43 +3247,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>784900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>763900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>724000</v>
+      </c>
+      <c r="G72" s="3">
         <v>613200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>587300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>568400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>538500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>490400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>534300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>578600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>535600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>443600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>480000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2839,8 +3335,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2874,8 +3379,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2909,43 +3423,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>859600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>843800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>805300</v>
+      </c>
+      <c r="G76" s="3">
         <v>694400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>668900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>650200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>623300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>580800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>617100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>659900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>607800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>513000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2979,83 +3511,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43679</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43588</v>
+      </c>
+      <c r="G80" s="2">
         <v>43497</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43315</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43224</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43133</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43039</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42860</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>60600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G81" s="3">
         <v>59500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>39000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>79000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>131300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>33800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>68400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>120500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3069,43 +3628,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G83" s="3">
         <v>15600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>19400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>11800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>17300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>18000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>16500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3139,8 +3710,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3174,8 +3754,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3209,8 +3798,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3244,8 +3842,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3279,43 +3886,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>95100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>138000</v>
+      </c>
+      <c r="G89" s="3">
         <v>26000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>105400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>120900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>130300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>84100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>106200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>155000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>80300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3329,43 +3954,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-14200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-38200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-16600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-24600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-21700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-32900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-11600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3399,8 +4036,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3434,43 +4080,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-698700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-38400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-22700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-56100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-10800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-27700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-35600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3484,43 +4148,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-21200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-21100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-21300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-21400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-18800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-19000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-18900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-19000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3554,8 +4230,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3589,8 +4274,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3624,109 +4318,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>491800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-38300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-23300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-51900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-88700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-88100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-82900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-32600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-96300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-64700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>7800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-39200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>38300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>44800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-13600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-90500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-24800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>69800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>106300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-114700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
     </row>
